--- a/Model/Modelos-v4/resultados.xlsx
+++ b/Model/Modelos-v4/resultados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alonso\PycharmProjects\TFG\Model\Modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alonso\PycharmProjects\TFG\Model\Modelos-v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE41E46-CE7D-4ED6-9DCC-027C649E1C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9F1020-3D45-44E4-AB1D-77D20DE6DC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="38">
   <si>
     <t>modelo</t>
   </si>
@@ -43,7 +43,16 @@
     <t>conv_filters_3</t>
   </si>
   <si>
-    <t>lstm_units</t>
+    <t>conv_activation</t>
+  </si>
+  <si>
+    <t>rnn</t>
+  </si>
+  <si>
+    <t>rnn_units</t>
+  </si>
+  <si>
+    <t>rnn_activation</t>
   </si>
   <si>
     <t>optimizer</t>
@@ -52,31 +61,79 @@
     <t>epochs</t>
   </si>
   <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>accuracy</t>
+    <t>accuracy-Test-1</t>
+  </si>
+  <si>
+    <t>precision-Test-1</t>
+  </si>
+  <si>
+    <t>recall-Test-1</t>
+  </si>
+  <si>
+    <t>f1-Test-1</t>
+  </si>
+  <si>
+    <t>f2-Test-1</t>
+  </si>
+  <si>
+    <t>accuracy-Test-2</t>
+  </si>
+  <si>
+    <t>precision-Test-2</t>
+  </si>
+  <si>
+    <t>recall-Test-2</t>
+  </si>
+  <si>
+    <t>f1-Test-2</t>
+  </si>
+  <si>
+    <t>f2-Test-2</t>
+  </si>
+  <si>
+    <t>accuracy-Test-3</t>
+  </si>
+  <si>
+    <t>precision-Test-3</t>
+  </si>
+  <si>
+    <t>recall-Test-3</t>
+  </si>
+  <si>
+    <t>f1-Test-3</t>
+  </si>
+  <si>
+    <t>f2-Test-3</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>relu</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>RMSprop</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
+    <t>adamax</t>
+  </si>
+  <si>
     <t>adam</t>
   </si>
   <si>
-    <t>RMSprop</t>
-  </si>
-  <si>
-    <t>adamax</t>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>nadam</t>
   </si>
   <si>
     <t>ftrl</t>
-  </si>
-  <si>
-    <t>nadam</t>
-  </si>
-  <si>
-    <t>SGD</t>
   </si>
 </sst>
 </file>
@@ -86,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,21 +155,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -122,22 +164,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -164,25 +196,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
-    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,15 +509,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +577,56 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -546,28 +643,76 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J2">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="K2">
-        <v>0.67170900106430054</v>
-      </c>
-      <c r="L2">
-        <v>0.85276073217391968</v>
+      <c r="N2">
+        <v>0.85889571905136108</v>
+      </c>
+      <c r="O2">
+        <v>0.92</v>
+      </c>
+      <c r="P2">
+        <v>0.70769230769230773</v>
+      </c>
+      <c r="Q2">
+        <v>0.8</v>
+      </c>
+      <c r="R2">
+        <v>0.74193548387096786</v>
+      </c>
+      <c r="S2">
+        <v>0.67259788513183594</v>
+      </c>
+      <c r="T2">
+        <v>0.67816091954022983</v>
+      </c>
+      <c r="U2">
+        <v>0.47967479674796748</v>
+      </c>
+      <c r="V2">
+        <v>0.5619047619047618</v>
+      </c>
+      <c r="W2">
+        <v>0.50949913644214162</v>
+      </c>
+      <c r="X2">
+        <v>0.62711864709854126</v>
+      </c>
+      <c r="Y2">
+        <v>0.63076923076923075</v>
+      </c>
+      <c r="Z2">
+        <v>0.39047619047619048</v>
+      </c>
+      <c r="AA2">
+        <v>0.4823529411764706</v>
+      </c>
+      <c r="AB2">
+        <v>0.42268041237113402</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -587,25 +732,73 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J3">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3">
         <v>10</v>
       </c>
-      <c r="K3">
-        <v>0.77654469013214111</v>
-      </c>
-      <c r="L3">
-        <v>0.76073616743087769</v>
+      <c r="N3">
+        <v>0.76687115430831909</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0.41538461538461541</v>
+      </c>
+      <c r="Q3">
+        <v>0.58695652173913049</v>
+      </c>
+      <c r="R3">
+        <v>0.47038327526132412</v>
+      </c>
+      <c r="S3">
+        <v>0.74733096361160278</v>
+      </c>
+      <c r="T3">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="U3">
+        <v>0.57723577235772361</v>
+      </c>
+      <c r="V3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W3">
+        <v>0.60996563573883156</v>
+      </c>
+      <c r="X3">
+        <v>0.68220341205596924</v>
+      </c>
+      <c r="Y3">
+        <v>0.69736842105263153</v>
+      </c>
+      <c r="Z3">
+        <v>0.50476190476190474</v>
+      </c>
+      <c r="AA3">
+        <v>0.58563535911602205</v>
+      </c>
+      <c r="AB3">
+        <v>0.53427419354838701</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -625,25 +818,73 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J4">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="K4" s="3">
-        <v>0.31143736839294428</v>
-      </c>
-      <c r="L4">
-        <v>0.86503064632415771</v>
+      <c r="N4">
+        <v>0.87116563320159912</v>
+      </c>
+      <c r="O4">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="P4">
+        <v>0.7384615384615385</v>
+      </c>
+      <c r="Q4">
+        <v>0.8205128205128206</v>
+      </c>
+      <c r="R4">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="S4">
+        <v>0.71174377202987671</v>
+      </c>
+      <c r="T4">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="U4">
+        <v>0.58536585365853655</v>
+      </c>
+      <c r="V4">
+        <v>0.64</v>
+      </c>
+      <c r="W4">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="X4">
+        <v>0.70338982343673706</v>
+      </c>
+      <c r="Y4">
+        <v>0.71084337349397586</v>
+      </c>
+      <c r="Z4">
+        <v>0.56190476190476191</v>
+      </c>
+      <c r="AA4">
+        <v>0.62765957446808507</v>
+      </c>
+      <c r="AB4">
+        <v>0.58648111332007957</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -665,23 +906,71 @@
       <c r="G5">
         <v>32</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5">
         <v>64</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5">
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5">
         <v>10</v>
       </c>
-      <c r="K5">
-        <v>0.362408846616745</v>
-      </c>
-      <c r="L5">
-        <v>0.87116563320159912</v>
+      <c r="N5">
+        <v>0.87730062007904053</v>
+      </c>
+      <c r="O5">
+        <v>0.95918367346938771</v>
+      </c>
+      <c r="P5">
+        <v>0.72307692307692306</v>
+      </c>
+      <c r="Q5">
+        <v>0.82456140350877183</v>
+      </c>
+      <c r="R5">
+        <v>0.76051779935275077</v>
+      </c>
+      <c r="S5">
+        <v>0.77580070495605469</v>
+      </c>
+      <c r="T5">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U5">
+        <v>0.58536585365853655</v>
+      </c>
+      <c r="V5">
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="W5">
+        <v>0.625</v>
+      </c>
+      <c r="X5">
+        <v>0.61864405870437622</v>
+      </c>
+      <c r="Y5">
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="Z5">
+        <v>0.37142857142857139</v>
+      </c>
+      <c r="AA5">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="AB5">
+        <v>0.40372670807453431</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -703,23 +992,71 @@
       <c r="G6">
         <v>32</v>
       </c>
-      <c r="H6">
-        <v>32</v>
+      <c r="H6" t="s">
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J6">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6">
         <v>10</v>
       </c>
-      <c r="K6">
-        <v>0.46490740776062012</v>
-      </c>
-      <c r="L6">
-        <v>0.84662574529647827</v>
+      <c r="N6">
+        <v>0.85276073217391968</v>
+      </c>
+      <c r="O6">
+        <v>0.91836734693877553</v>
+      </c>
+      <c r="P6">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="Q6">
+        <v>0.78947368421052622</v>
+      </c>
+      <c r="R6">
+        <v>0.72815533980582514</v>
+      </c>
+      <c r="S6">
+        <v>0.71174377202987671</v>
+      </c>
+      <c r="T6">
+        <v>0.8</v>
+      </c>
+      <c r="U6">
+        <v>0.45528455284552838</v>
+      </c>
+      <c r="V6">
+        <v>0.5803108808290155</v>
+      </c>
+      <c r="W6">
+        <v>0.49822064056939508</v>
+      </c>
+      <c r="X6">
+        <v>0.62711864709854126</v>
+      </c>
+      <c r="Y6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z6">
+        <v>0.32380952380952382</v>
+      </c>
+      <c r="AA6">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="AB6">
+        <v>0.36093418259023352</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -741,23 +1078,71 @@
       <c r="G7">
         <v>32</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7">
         <v>64</v>
       </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7">
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7">
         <v>10</v>
       </c>
-      <c r="K7">
-        <v>0.54685395956039429</v>
-      </c>
-      <c r="L7">
-        <v>0.88343560695648193</v>
+      <c r="N7">
+        <v>0.87730062007904053</v>
+      </c>
+      <c r="O7">
+        <v>0.97872340425531912</v>
+      </c>
+      <c r="P7">
+        <v>0.70769230769230773</v>
+      </c>
+      <c r="Q7">
+        <v>0.82142857142857151</v>
+      </c>
+      <c r="R7">
+        <v>0.74918566775244311</v>
+      </c>
+      <c r="S7">
+        <v>0.85409253835678101</v>
+      </c>
+      <c r="T7">
+        <v>0.96590909090909094</v>
+      </c>
+      <c r="U7">
+        <v>0.69105691056910568</v>
+      </c>
+      <c r="V7">
+        <v>0.80568720379146919</v>
+      </c>
+      <c r="W7">
+        <v>0.73275862068965514</v>
+      </c>
+      <c r="X7">
+        <v>0.54661017656326294</v>
+      </c>
+      <c r="Y7">
+        <v>0.47727272727272729</v>
+      </c>
+      <c r="Z7">
+        <v>0.2</v>
+      </c>
+      <c r="AA7">
+        <v>0.28187919463087252</v>
+      </c>
+      <c r="AB7">
+        <v>0.2262931034482758</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -779,25 +1164,73 @@
       <c r="G8">
         <v>32</v>
       </c>
-      <c r="H8">
-        <v>32</v>
+      <c r="H8" t="s">
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J8">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8">
         <v>10</v>
       </c>
-      <c r="K8" s="3">
-        <v>0.28058153390884399</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.91411042213439941</v>
+      <c r="N8">
+        <v>0.92024540901184082</v>
+      </c>
+      <c r="O8">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="P8">
+        <v>0.83076923076923082</v>
+      </c>
+      <c r="Q8">
+        <v>0.8925619834710744</v>
+      </c>
+      <c r="R8">
+        <v>0.85443037974683544</v>
+      </c>
+      <c r="S8">
+        <v>0.93238431215286255</v>
+      </c>
+      <c r="T8">
+        <v>0.92622950819672134</v>
+      </c>
+      <c r="U8">
+        <v>0.91869918699186992</v>
+      </c>
+      <c r="V8">
+        <v>0.92244897959183669</v>
+      </c>
+      <c r="W8">
+        <v>0.92019543973941353</v>
+      </c>
+      <c r="X8">
+        <v>0.64830505847930908</v>
+      </c>
+      <c r="Y8">
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="Z8">
+        <v>0.43809523809523809</v>
+      </c>
+      <c r="AA8">
+        <v>0.52571428571428558</v>
+      </c>
+      <c r="AB8">
+        <v>0.46938775510204078</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -811,31 +1244,79 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>16</v>
       </c>
-      <c r="G9" s="4">
-        <v>32</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="2">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9">
         <v>16</v>
       </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9">
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9">
         <v>10</v>
       </c>
-      <c r="K9">
-        <v>0.39565342664718628</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.90184050798416138</v>
+      <c r="N9">
+        <v>0.90797543525695801</v>
+      </c>
+      <c r="O9">
+        <v>0.9464285714285714</v>
+      </c>
+      <c r="P9">
+        <v>0.81538461538461537</v>
+      </c>
+      <c r="Q9">
+        <v>0.87603305785123964</v>
+      </c>
+      <c r="R9">
+        <v>0.83860759493670889</v>
+      </c>
+      <c r="S9">
+        <v>0.87900358438491821</v>
+      </c>
+      <c r="T9">
+        <v>0.96842105263157896</v>
+      </c>
+      <c r="U9">
+        <v>0.74796747967479671</v>
+      </c>
+      <c r="V9">
+        <v>0.84403669724770636</v>
+      </c>
+      <c r="W9">
+        <v>0.78364565587734247</v>
+      </c>
+      <c r="X9">
+        <v>0.65677964687347412</v>
+      </c>
+      <c r="Y9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z9">
+        <v>0.45714285714285707</v>
+      </c>
+      <c r="AA9">
+        <v>0.5423728813559322</v>
+      </c>
+      <c r="AB9">
+        <v>0.48780487804878042</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -849,31 +1330,79 @@
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" s="4">
-        <v>32</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F10" s="2">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2">
         <v>64</v>
       </c>
-      <c r="H10">
-        <v>32</v>
+      <c r="H10" t="s">
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J10">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10">
         <v>10</v>
       </c>
-      <c r="K10">
-        <v>0.45208853483200068</v>
-      </c>
-      <c r="L10">
-        <v>0.86503064632415771</v>
+      <c r="N10">
+        <v>0.90797543525695801</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="Q10">
+        <v>0.86956521739130443</v>
+      </c>
+      <c r="R10">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="S10">
+        <v>0.73665481805801392</v>
+      </c>
+      <c r="T10">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="U10">
+        <v>0.45528455284552838</v>
+      </c>
+      <c r="V10">
+        <v>0.60215053763440851</v>
+      </c>
+      <c r="W10">
+        <v>0.50450450450450446</v>
+      </c>
+      <c r="X10">
+        <v>0.5974576473236084</v>
+      </c>
+      <c r="Y10">
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="Z10">
+        <v>0.32380952380952382</v>
+      </c>
+      <c r="AA10">
+        <v>0.41717791411042943</v>
+      </c>
+      <c r="AB10">
+        <v>0.3556485355648536</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -887,31 +1416,79 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>16</v>
       </c>
-      <c r="G11" s="4">
-        <v>32</v>
-      </c>
-      <c r="H11">
-        <v>32</v>
+      <c r="G11" s="2">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J11">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11">
         <v>10</v>
       </c>
-      <c r="K11" s="3">
-        <v>0.32669204473495478</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.89570552110671997</v>
+      <c r="N11">
+        <v>0.87116563320159912</v>
+      </c>
+      <c r="O11">
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="P11">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="Q11">
+        <v>0.81081081081081074</v>
+      </c>
+      <c r="R11">
+        <v>0.73529411764705888</v>
+      </c>
+      <c r="S11">
+        <v>0.92526692152023315</v>
+      </c>
+      <c r="T11">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="U11">
+        <v>0.85365853658536583</v>
+      </c>
+      <c r="V11">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="W11">
+        <v>0.875</v>
+      </c>
+      <c r="X11">
+        <v>0.62711864709854126</v>
+      </c>
+      <c r="Y11">
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="Z11">
+        <v>0.29523809523809519</v>
+      </c>
+      <c r="AA11">
+        <v>0.41333333333333327</v>
+      </c>
+      <c r="AB11">
+        <v>0.33333333333333343</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -925,31 +1502,79 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>16</v>
       </c>
-      <c r="G12" s="4">
-        <v>32</v>
-      </c>
-      <c r="H12">
-        <v>32</v>
+      <c r="G12" s="2">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J12">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12">
         <v>10</v>
       </c>
-      <c r="K12">
-        <v>0.43334183096885681</v>
-      </c>
-      <c r="L12">
-        <v>0.87116563320159912</v>
+      <c r="N12">
+        <v>0.90184050798416138</v>
+      </c>
+      <c r="O12">
+        <v>0.92982456140350878</v>
+      </c>
+      <c r="P12">
+        <v>0.81538461538461537</v>
+      </c>
+      <c r="Q12">
+        <v>0.86885245901639341</v>
+      </c>
+      <c r="R12">
+        <v>0.83596214511041023</v>
+      </c>
+      <c r="S12">
+        <v>0.64056938886642456</v>
+      </c>
+      <c r="T12">
+        <v>0.60185185185185186</v>
+      </c>
+      <c r="U12">
+        <v>0.52845528455284552</v>
+      </c>
+      <c r="V12">
+        <v>0.5627705627705627</v>
+      </c>
+      <c r="W12">
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="X12">
+        <v>0.64406782388687134</v>
+      </c>
+      <c r="Y12">
+        <v>0.65671641791044777</v>
+      </c>
+      <c r="Z12">
+        <v>0.41904761904761911</v>
+      </c>
+      <c r="AA12">
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="AB12">
+        <v>0.45174537987679669</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -963,31 +1588,79 @@
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>16</v>
       </c>
-      <c r="G13" s="4">
-        <v>32</v>
-      </c>
-      <c r="H13">
-        <v>32</v>
+      <c r="G13" s="2">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J13">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13">
         <v>10</v>
       </c>
-      <c r="K13">
-        <v>0.51659947633743286</v>
-      </c>
-      <c r="L13">
-        <v>0.83435583114624023</v>
+      <c r="N13">
+        <v>0.86503064632415771</v>
+      </c>
+      <c r="O13">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="P13">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="Q13">
+        <v>0.8035714285714286</v>
+      </c>
+      <c r="R13">
+        <v>0.73289902280130304</v>
+      </c>
+      <c r="S13">
+        <v>0.79715299606323242</v>
+      </c>
+      <c r="T13">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="U13">
+        <v>0.56097560975609762</v>
+      </c>
+      <c r="V13">
+        <v>0.70769230769230773</v>
+      </c>
+      <c r="W13">
+        <v>0.61170212765957455</v>
+      </c>
+      <c r="X13">
+        <v>0.63135594129562378</v>
+      </c>
+      <c r="Y13">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="Z13">
+        <v>0.4</v>
+      </c>
+      <c r="AA13">
+        <v>0.49122807017543862</v>
+      </c>
+      <c r="AB13">
+        <v>0.4320987654320988</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>16</v>
@@ -1001,31 +1674,79 @@
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14">
-        <v>32</v>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J14">
+        <v>32</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14">
         <v>10</v>
       </c>
-      <c r="K14">
-        <v>0.36581134796142578</v>
-      </c>
-      <c r="L14">
-        <v>0.85889571905136108</v>
+      <c r="N14">
+        <v>0.84049081802368164</v>
+      </c>
+      <c r="O14">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="P14">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="Q14">
+        <v>0.77586206896551724</v>
+      </c>
+      <c r="R14">
+        <v>0.72347266881028927</v>
+      </c>
+      <c r="S14">
+        <v>0.83629894256591797</v>
+      </c>
+      <c r="T14">
+        <v>0.96385542168674698</v>
+      </c>
+      <c r="U14">
+        <v>0.65040650406504064</v>
+      </c>
+      <c r="V14">
+        <v>0.77669902912621358</v>
+      </c>
+      <c r="W14">
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="X14">
+        <v>0.59322035312652588</v>
+      </c>
+      <c r="Y14">
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="Z14">
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="AA14">
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="AB14">
+        <v>0.34591194968553463</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -1039,31 +1760,79 @@
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>16</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15">
-        <v>32</v>
+      <c r="G15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J15">
+        <v>32</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15">
         <v>10</v>
       </c>
-      <c r="K15">
-        <v>0.61185485124588013</v>
-      </c>
-      <c r="L15">
-        <v>0.78527605533599854</v>
+      <c r="N15">
+        <v>0.86503064632415771</v>
+      </c>
+      <c r="O15">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="P15">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="Q15">
+        <v>0.8035714285714286</v>
+      </c>
+      <c r="R15">
+        <v>0.73289902280130304</v>
+      </c>
+      <c r="S15">
+        <v>0.61565834283828735</v>
+      </c>
+      <c r="T15">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="U15">
+        <v>0.26829268292682928</v>
+      </c>
+      <c r="V15">
+        <v>0.37931034482758619</v>
+      </c>
+      <c r="W15">
+        <v>0.30386740331491707</v>
+      </c>
+      <c r="X15">
+        <v>0.5974576473236084</v>
+      </c>
+      <c r="Y15">
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="Z15">
+        <v>0.32380952380952382</v>
+      </c>
+      <c r="AA15">
+        <v>0.41717791411042943</v>
+      </c>
+      <c r="AB15">
+        <v>0.3556485355648536</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -1077,31 +1846,79 @@
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>16</v>
       </c>
-      <c r="G16" s="4">
-        <v>32</v>
-      </c>
-      <c r="H16">
-        <v>32</v>
+      <c r="G16" s="2">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J16">
+        <v>32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16">
         <v>10</v>
       </c>
-      <c r="K16">
-        <v>0.71383082866668701</v>
-      </c>
-      <c r="L16">
-        <v>0.39263802766799932</v>
+      <c r="N16">
+        <v>0.79141104221343994</v>
+      </c>
+      <c r="O16">
+        <v>0.87804878048780488</v>
+      </c>
+      <c r="P16">
+        <v>0.55384615384615388</v>
+      </c>
+      <c r="Q16">
+        <v>0.67924528301886788</v>
+      </c>
+      <c r="R16">
+        <v>0.59800664451827235</v>
+      </c>
+      <c r="S16">
+        <v>0.55516016483306885</v>
+      </c>
+      <c r="T16">
+        <v>0.47727272727272729</v>
+      </c>
+      <c r="U16">
+        <v>0.17073170731707321</v>
+      </c>
+      <c r="V16">
+        <v>0.25149700598802388</v>
+      </c>
+      <c r="W16">
+        <v>0.19589552238805971</v>
+      </c>
+      <c r="X16">
+        <v>0.5974576473236084</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="AA16">
+        <v>0.17391304347826081</v>
+      </c>
+      <c r="AB16">
+        <v>0.1162790697674419</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1115,31 +1932,79 @@
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17">
-        <v>32</v>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J17">
+        <v>32</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17">
         <v>10</v>
       </c>
-      <c r="K17">
-        <v>0.83456367254257202</v>
-      </c>
-      <c r="L17">
-        <v>0.79754602909088135</v>
+      <c r="N17">
+        <v>0.39877301454544067</v>
+      </c>
+      <c r="O17">
+        <v>0.37209302325581389</v>
+      </c>
+      <c r="P17">
+        <v>0.7384615384615385</v>
+      </c>
+      <c r="Q17">
+        <v>0.49484536082474229</v>
+      </c>
+      <c r="R17">
+        <v>0.61696658097686385</v>
+      </c>
+      <c r="S17">
+        <v>0.13167259097099299</v>
+      </c>
+      <c r="T17">
+        <v>4.5112781954887222E-2</v>
+      </c>
+      <c r="U17">
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="V17">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="W17">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="X17">
+        <v>0.50847458839416504</v>
+      </c>
+      <c r="Y17">
+        <v>0.34285714285714292</v>
+      </c>
+      <c r="Z17">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="AA17">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="AB17">
+        <v>0.13186813186813179</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -1153,31 +2018,79 @@
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>16</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18">
-        <v>32</v>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J18">
+        <v>32</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18">
         <v>10</v>
       </c>
-      <c r="K18">
-        <v>0.51506984233856201</v>
-      </c>
-      <c r="L18">
-        <v>0.85889571905136108</v>
+      <c r="N18">
+        <v>0.80368095636367798</v>
+      </c>
+      <c r="O18">
+        <v>0.90243902439024393</v>
+      </c>
+      <c r="P18">
+        <v>0.56923076923076921</v>
+      </c>
+      <c r="Q18">
+        <v>0.69811320754716977</v>
+      </c>
+      <c r="R18">
+        <v>0.61461794019933547</v>
+      </c>
+      <c r="S18">
+        <v>0.73309606313705444</v>
+      </c>
+      <c r="T18">
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="U18">
+        <v>0.46341463414634149</v>
+      </c>
+      <c r="V18">
+        <v>0.60317460317460325</v>
+      </c>
+      <c r="W18">
+        <v>0.510752688172043</v>
+      </c>
+      <c r="X18">
+        <v>0.6737288236618042</v>
+      </c>
+      <c r="Y18">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="Z18">
+        <v>0.27619047619047621</v>
+      </c>
+      <c r="AA18">
+        <v>0.42962962962962958</v>
+      </c>
+      <c r="AB18">
+        <v>0.32222222222222219</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -1191,31 +2104,79 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>16</v>
       </c>
-      <c r="G19" s="4">
-        <v>32</v>
-      </c>
-      <c r="H19">
-        <v>32</v>
+      <c r="G19" s="2">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J19">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19">
         <v>10</v>
       </c>
-      <c r="K19">
-        <v>0.47573456168174738</v>
-      </c>
-      <c r="L19">
-        <v>0.80981594324111938</v>
+      <c r="N19">
+        <v>0.86503064632415771</v>
+      </c>
+      <c r="O19">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="P19">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="Q19">
+        <v>0.8035714285714286</v>
+      </c>
+      <c r="R19">
+        <v>0.73289902280130304</v>
+      </c>
+      <c r="S19">
+        <v>0.88967972993850708</v>
+      </c>
+      <c r="T19">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="U19">
+        <v>0.93495934959349591</v>
+      </c>
+      <c r="V19">
+        <v>0.88122605363984674</v>
+      </c>
+      <c r="W19">
+        <v>0.91269841269841268</v>
+      </c>
+      <c r="X19">
+        <v>0.58050847053527832</v>
+      </c>
+      <c r="Y19">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="Z19">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AA19">
+        <v>0.37735849056603771</v>
+      </c>
+      <c r="AB19">
+        <v>0.31645569620253161</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>16</v>
@@ -1229,31 +2190,79 @@
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20">
-        <v>32</v>
+      <c r="F20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J20">
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20">
         <v>10</v>
       </c>
-      <c r="K20">
-        <v>0.68920719623565674</v>
-      </c>
-      <c r="L20">
-        <v>0.60736197233200073</v>
+      <c r="N20">
+        <v>0.81595093011856079</v>
+      </c>
+      <c r="O20">
+        <v>0.92682926829268297</v>
+      </c>
+      <c r="P20">
+        <v>0.58461538461538465</v>
+      </c>
+      <c r="Q20">
+        <v>0.71698113207547165</v>
+      </c>
+      <c r="R20">
+        <v>0.63122923588039859</v>
+      </c>
+      <c r="S20">
+        <v>0.74733096361160278</v>
+      </c>
+      <c r="T20">
+        <v>0.87142857142857144</v>
+      </c>
+      <c r="U20">
+        <v>0.49593495934959347</v>
+      </c>
+      <c r="V20">
+        <v>0.63212435233160624</v>
+      </c>
+      <c r="W20">
+        <v>0.54270462633451944</v>
+      </c>
+      <c r="X20">
+        <v>0.60593217611312866</v>
+      </c>
+      <c r="Y20">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="Z20">
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="AA20">
+        <v>0.41509433962264147</v>
+      </c>
+      <c r="AB20">
+        <v>0.34810126582278489</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -1267,31 +2276,52 @@
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>16</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21">
-        <v>32</v>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J21">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21">
         <v>10</v>
       </c>
-      <c r="K21">
-        <v>0.68920105695724487</v>
-      </c>
-      <c r="L21">
-        <v>0.60736197233200073</v>
+      <c r="N21">
+        <v>0.60122698545455933</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.56227755546569824</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0.55508476495742798</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -1305,31 +2335,52 @@
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>16</v>
       </c>
-      <c r="G22" s="4">
-        <v>32</v>
-      </c>
-      <c r="H22">
-        <v>32</v>
+      <c r="G22" s="2">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J22">
+        <v>32</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22">
         <v>10</v>
       </c>
-      <c r="K22">
-        <v>0.68917137384414673</v>
-      </c>
-      <c r="L22">
-        <v>0.60736197233200073</v>
+      <c r="N22">
+        <v>0.60122698545455933</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.56227755546569824</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0.55508476495742798</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>16</v>
@@ -1343,31 +2394,52 @@
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23">
-        <v>32</v>
+      <c r="F23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J23">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23">
         <v>10</v>
       </c>
-      <c r="K23">
-        <v>0.35546159744262701</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0.89570552110671997</v>
+      <c r="N23">
+        <v>0.60122698545455933</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.56227755546569824</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0.55508476495742798</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -1381,31 +2453,79 @@
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>16</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24">
-        <v>32</v>
+      <c r="G24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J24">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24">
         <v>10</v>
       </c>
-      <c r="K24">
-        <v>0.39207148551940918</v>
-      </c>
-      <c r="L24">
-        <v>0.83435583114624023</v>
+      <c r="N24">
+        <v>0.90184050798416138</v>
+      </c>
+      <c r="O24">
+        <v>0.92982456140350878</v>
+      </c>
+      <c r="P24">
+        <v>0.81538461538461537</v>
+      </c>
+      <c r="Q24">
+        <v>0.86885245901639341</v>
+      </c>
+      <c r="R24">
+        <v>0.83596214511041023</v>
+      </c>
+      <c r="S24">
+        <v>0.73665481805801392</v>
+      </c>
+      <c r="T24">
+        <v>0.68702290076335881</v>
+      </c>
+      <c r="U24">
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="V24">
+        <v>0.70866141732283472</v>
+      </c>
+      <c r="W24">
+        <v>0.72231139646869991</v>
+      </c>
+      <c r="X24">
+        <v>0.70762711763381958</v>
+      </c>
+      <c r="Y24">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Z24">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AA24">
+        <v>0.634920634920635</v>
+      </c>
+      <c r="AB24">
+        <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -1419,29 +2539,175 @@
       <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>16</v>
       </c>
-      <c r="G25" s="4">
-        <v>32</v>
-      </c>
-      <c r="H25">
-        <v>32</v>
+      <c r="G25" s="2">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J25">
+        <v>32</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25">
         <v>10</v>
       </c>
-      <c r="K25">
-        <v>0.39413830637931818</v>
-      </c>
-      <c r="L25">
-        <v>0.85889571905136108</v>
+      <c r="N25">
+        <v>0.84049081802368164</v>
+      </c>
+      <c r="O25">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="P25">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="Q25">
+        <v>0.77586206896551724</v>
+      </c>
+      <c r="R25">
+        <v>0.72347266881028927</v>
+      </c>
+      <c r="S25">
+        <v>0.43416368961334229</v>
+      </c>
+      <c r="T25">
+        <v>0.30851063829787229</v>
+      </c>
+      <c r="U25">
+        <v>0.23577235772357719</v>
+      </c>
+      <c r="V25">
+        <v>0.26728110599078342</v>
+      </c>
+      <c r="W25">
+        <v>0.2474402730375426</v>
+      </c>
+      <c r="X25">
+        <v>0.65677964687347412</v>
+      </c>
+      <c r="Y25">
+        <v>0.67647058823529416</v>
+      </c>
+      <c r="Z25">
+        <v>0.43809523809523809</v>
+      </c>
+      <c r="AA25">
+        <v>0.53179190751445082</v>
+      </c>
+      <c r="AB25">
+        <v>0.47131147540983598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <v>32</v>
+      </c>
+      <c r="K26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>0.86503064632415771</v>
+      </c>
+      <c r="O26">
+        <v>0.90566037735849059</v>
+      </c>
+      <c r="P26">
+        <v>0.7384615384615385</v>
+      </c>
+      <c r="Q26">
+        <v>0.81355932203389836</v>
+      </c>
+      <c r="R26">
+        <v>0.76677316293929709</v>
+      </c>
+      <c r="S26">
+        <v>0.54092526435852051</v>
+      </c>
+      <c r="T26">
+        <v>0.47540983606557369</v>
+      </c>
+      <c r="U26">
+        <v>0.47154471544715448</v>
+      </c>
+      <c r="V26">
+        <v>0.473469387755102</v>
+      </c>
+      <c r="W26">
+        <v>0.47231270358306182</v>
+      </c>
+      <c r="X26">
+        <v>0.72457629442214966</v>
+      </c>
+      <c r="Y26">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="Z26">
+        <v>0.43809523809523809</v>
+      </c>
+      <c r="AA26">
+        <v>0.5859872611464968</v>
+      </c>
+      <c r="AB26">
+        <v>0.48728813559322032</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N2:AB26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="0.8"/>
+        <cfvo type="num" val="0.9"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>